--- a/slides/br_cafe_prices2.xlsx
+++ b/slides/br_cafe_prices2.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Séries" sheetId="1" state="visible" r:id="rId2"/>
@@ -382,6 +382,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -481,11 +482,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.16"/>
@@ -1065,11 +1066,11 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.13"/>
@@ -2309,7 +2310,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.66"/>
   </cols>
